--- a/Stock Selection/OPEN POSITION.xlsx
+++ b/Stock Selection/OPEN POSITION.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>17.54</v>
       </c>
       <c r="H2" t="n">
-        <v>21.16</v>
+        <v>21.44</v>
       </c>
       <c r="I2" t="n">
         <v>7.45</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="Q2" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CIB.US</t>
+          <t>CIB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -598,7 +598,7 @@
         <v>42.02</v>
       </c>
       <c r="H3" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="I3" t="n">
         <v>19.99</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.34</v>
+        <v>-0.39</v>
       </c>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -647,7 +647,7 @@
         <v>21.31</v>
       </c>
       <c r="H4" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I4" t="n">
         <v>20</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.5</v>
+        <v>-4.31</v>
       </c>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACI.US</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,7 +696,7 @@
         <v>20.36</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09</v>
+        <v>22.03</v>
       </c>
       <c r="I5" t="n">
         <v>20.36</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="inlineStr"/>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -745,7 +745,7 @@
         <v>524.4299999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>583.11</v>
+        <v>569.47</v>
       </c>
       <c r="I6" t="n">
         <v>0.52</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="inlineStr"/>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -794,7 +794,7 @@
         <v>51.24</v>
       </c>
       <c r="H7" t="n">
-        <v>58.87</v>
+        <v>59.44</v>
       </c>
       <c r="I7" t="n">
         <v>24.75</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.68</v>
+        <v>3.96</v>
       </c>
       <c r="Q7" t="inlineStr"/>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VWO.US</t>
+          <t>VWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -843,7 +843,7 @@
         <v>46.11</v>
       </c>
       <c r="H8" t="n">
-        <v>47.72</v>
+        <v>47.7</v>
       </c>
       <c r="I8" t="n">
         <v>46.11</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" t="inlineStr"/>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -892,7 +892,7 @@
         <v>45.55</v>
       </c>
       <c r="H9" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.14</v>
+        <v>-2.11</v>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BATT.NL</t>
+          <t>BATT.AS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -941,7 +941,7 @@
         <v>16.374</v>
       </c>
       <c r="H10" t="n">
-        <v>16.028</v>
+        <v>15.65</v>
       </c>
       <c r="I10" t="n">
         <v>17.9</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.12</v>
+        <v>-0.26</v>
       </c>
       <c r="Q10" t="inlineStr"/>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -990,7 +990,7 @@
         <v>129.08</v>
       </c>
       <c r="H11" t="n">
-        <v>139.03</v>
+        <v>140.99</v>
       </c>
       <c r="I11" t="n">
         <v>10.49</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1039,7 +1039,7 @@
         <v>165.35</v>
       </c>
       <c r="H12" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I12" t="n">
         <v>15</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.61</v>
+        <v>2.39</v>
       </c>
       <c r="Q12" t="inlineStr"/>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         <v>15.3</v>
       </c>
       <c r="H13" t="n">
-        <v>21.16</v>
+        <v>21.44</v>
       </c>
       <c r="I13" t="n">
         <v>5.35</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="inlineStr"/>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <v>43.27</v>
       </c>
       <c r="H14" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I14" t="n">
         <v>10.03</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.73</v>
+        <v>-1.7</v>
       </c>
       <c r="Q14" t="inlineStr"/>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1186,7 +1186,7 @@
         <v>19.2</v>
       </c>
       <c r="H15" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I15" t="n">
         <v>15</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.27</v>
+        <v>-1.94</v>
       </c>
       <c r="Q15" t="inlineStr"/>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1235,7 +1235,7 @@
         <v>15.55</v>
       </c>
       <c r="H16" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I16" t="n">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="Q16" t="inlineStr"/>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1284,7 +1284,7 @@
         <v>36.1</v>
       </c>
       <c r="H17" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="Q17" t="inlineStr"/>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1333,7 +1333,7 @@
         <v>126.78</v>
       </c>
       <c r="H18" t="n">
-        <v>177.64</v>
+        <v>163.4</v>
       </c>
       <c r="I18" t="n">
         <v>10.99</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.41</v>
+        <v>3.18</v>
       </c>
       <c r="Q18" t="inlineStr"/>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1382,7 +1382,7 @@
         <v>195.11</v>
       </c>
       <c r="H19" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="Q19" t="inlineStr"/>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ACI.US</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1431,7 +1431,7 @@
         <v>20.65</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09</v>
+        <v>22.03</v>
       </c>
       <c r="I20" t="n">
         <v>20.65</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q20" t="inlineStr"/>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1480,7 +1480,7 @@
         <v>56.78</v>
       </c>
       <c r="H21" t="n">
-        <v>58.87</v>
+        <v>59.44</v>
       </c>
       <c r="I21" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="Q21" t="inlineStr"/>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1529,7 +1529,7 @@
         <v>38.58</v>
       </c>
       <c r="H22" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.72</v>
+        <v>-0.68</v>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BND.US</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1578,7 +1578,7 @@
         <v>72.87</v>
       </c>
       <c r="H23" t="n">
-        <v>72.45999999999999</v>
+        <v>71.87</v>
       </c>
       <c r="I23" t="n">
         <v>72.87</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.41</v>
+        <v>-1</v>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1627,7 +1627,7 @@
         <v>15.3</v>
       </c>
       <c r="H24" t="n">
-        <v>21.16</v>
+        <v>21.44</v>
       </c>
       <c r="I24" t="n">
         <v>15.3</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.86</v>
+        <v>6.14</v>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1676,7 +1676,7 @@
         <v>507.68</v>
       </c>
       <c r="H25" t="n">
-        <v>583.11</v>
+        <v>569.47</v>
       </c>
       <c r="I25" t="n">
         <v>14.98</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="inlineStr"/>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1725,7 +1725,7 @@
         <v>196.9</v>
       </c>
       <c r="H26" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I26" t="n">
         <v>14.98</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.21</v>
+        <v>-0.39</v>
       </c>
       <c r="Q26" t="inlineStr"/>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOTZ.UK</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1774,7 +1774,7 @@
         <v>20.58</v>
       </c>
       <c r="H27" t="n">
-        <v>20.345</v>
+        <v>20.42</v>
       </c>
       <c r="I27" t="n">
         <v>20.58</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.23</v>
+        <v>-0.16</v>
       </c>
       <c r="Q27" t="inlineStr"/>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>INGR.US</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1823,7 +1823,7 @@
         <v>135.82</v>
       </c>
       <c r="H28" t="n">
-        <v>140.35</v>
+        <v>138.01</v>
       </c>
       <c r="I28" t="n">
         <v>26</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.86</v>
+        <v>0.42</v>
       </c>
       <c r="Q28" t="inlineStr"/>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1872,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I29" t="n">
         <v>9.99</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.56</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="inlineStr"/>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1921,7 +1921,7 @@
         <v>139.41</v>
       </c>
       <c r="H30" t="n">
-        <v>177.64</v>
+        <v>163.4</v>
       </c>
       <c r="I30" t="n">
         <v>5.34</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.46</v>
+        <v>0.92</v>
       </c>
       <c r="Q30" t="inlineStr"/>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BBVA.ES</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>12.75</v>
       </c>
       <c r="H31" t="n">
-        <v>13.385</v>
+        <v>13.715</v>
       </c>
       <c r="I31" t="n">
         <v>10.51</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.26</v>
+        <v>0.7</v>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2019,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="H32" t="n">
-        <v>44.07</v>
+        <v>44.18</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2068,7 +2068,7 @@
         <v>408.33</v>
       </c>
       <c r="H33" t="n">
-        <v>454.07</v>
+        <v>452.61</v>
       </c>
       <c r="I33" t="n">
         <v>10.98</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BCS.US</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2117,7 +2117,7 @@
         <v>16.12</v>
       </c>
       <c r="H34" t="n">
-        <v>17.43</v>
+        <v>17.59</v>
       </c>
       <c r="I34" t="n">
         <v>16.12</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2166,7 +2166,7 @@
         <v>20.62</v>
       </c>
       <c r="H35" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I35" t="n">
         <v>9.99</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.47</v>
+        <v>-1.89</v>
       </c>
       <c r="Q35" t="inlineStr"/>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AAPL.US</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2215,7 +2215,7 @@
         <v>232.2</v>
       </c>
       <c r="H36" t="n">
-        <v>211.27</v>
+        <v>202.22</v>
       </c>
       <c r="I36" t="n">
         <v>0.02</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AGIO.US</t>
+          <t>AGIO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2264,7 +2264,7 @@
         <v>28.09</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>30.11</v>
       </c>
       <c r="I37" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.32</v>
+        <v>0.72</v>
       </c>
       <c r="Q37" t="inlineStr"/>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2313,7 +2313,7 @@
         <v>178.48</v>
       </c>
       <c r="H38" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I38" t="n">
         <v>14.99</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="Q38" t="inlineStr"/>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>INGR.US</t>
+          <t>INGR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2362,7 +2362,7 @@
         <v>127.16</v>
       </c>
       <c r="H39" t="n">
-        <v>140.35</v>
+        <v>138.01</v>
       </c>
       <c r="I39" t="n">
         <v>19.99</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="Q39" t="inlineStr"/>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VWO.US</t>
+          <t>VWO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>44.49</v>
       </c>
       <c r="H40" t="n">
-        <v>47.72</v>
+        <v>47.7</v>
       </c>
       <c r="I40" t="n">
         <v>44.49</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="Q40" t="inlineStr"/>
     </row>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2460,7 +2460,7 @@
         <v>190.67</v>
       </c>
       <c r="H41" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I41" t="n">
         <v>12.98</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="Q41" t="inlineStr"/>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BND.US</t>
+          <t>BND</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2509,7 +2509,7 @@
         <v>74.13</v>
       </c>
       <c r="H42" t="n">
-        <v>72.45999999999999</v>
+        <v>71.87</v>
       </c>
       <c r="I42" t="n">
         <v>74.13</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-1.67</v>
+        <v>-2.26</v>
       </c>
       <c r="Q42" t="inlineStr"/>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BCS.US</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2558,7 +2558,7 @@
         <v>14.87</v>
       </c>
       <c r="H43" t="n">
-        <v>17.43</v>
+        <v>17.59</v>
       </c>
       <c r="I43" t="n">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2607,7 +2607,7 @@
         <v>50.99</v>
       </c>
       <c r="H44" t="n">
-        <v>58.87</v>
+        <v>59.44</v>
       </c>
       <c r="I44" t="n">
         <v>20</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.09</v>
+        <v>3.31</v>
       </c>
       <c r="Q44" t="inlineStr"/>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2656,7 +2656,7 @@
         <v>127.72</v>
       </c>
       <c r="H45" t="n">
-        <v>177.64</v>
+        <v>163.4</v>
       </c>
       <c r="I45" t="n">
         <v>11</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.29</v>
+        <v>3.07</v>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2705,7 +2705,7 @@
         <v>29.7</v>
       </c>
       <c r="H46" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I46" t="n">
         <v>10</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2754,7 +2754,7 @@
         <v>37.7</v>
       </c>
       <c r="H47" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I47" t="n">
         <v>9.99</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.49</v>
+        <v>-0.46</v>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2803,7 +2803,7 @@
         <v>185.82</v>
       </c>
       <c r="H48" t="n">
-        <v>166.19</v>
+        <v>168.6</v>
       </c>
       <c r="I48" t="n">
         <v>10</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-1.06</v>
+        <v>-0.93</v>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BCS.US</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2852,7 +2852,7 @@
         <v>16.12</v>
       </c>
       <c r="H49" t="n">
-        <v>17.43</v>
+        <v>17.59</v>
       </c>
       <c r="I49" t="n">
         <v>3.88</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="Q49" t="inlineStr"/>
     </row>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BATT.NL</t>
+          <t>BATT.AS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2901,7 +2901,7 @@
         <v>16.425</v>
       </c>
       <c r="H50" t="n">
-        <v>16.028</v>
+        <v>15.65</v>
       </c>
       <c r="I50" t="n">
         <v>17.11</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="Q50" t="inlineStr"/>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2950,7 +2950,7 @@
         <v>17.18</v>
       </c>
       <c r="H51" t="n">
-        <v>21.16</v>
+        <v>21.44</v>
       </c>
       <c r="I51" t="n">
         <v>17.18</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>3.98</v>
+        <v>4.26</v>
       </c>
       <c r="Q51" t="inlineStr"/>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NEE.US</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2999,7 +2999,7 @@
         <v>77.34999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>74.97</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="I52" t="n">
         <v>19.99</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.61</v>
+        <v>-1.49</v>
       </c>
       <c r="Q52" t="inlineStr"/>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3048,7 +3048,7 @@
         <v>144.94</v>
       </c>
       <c r="H53" t="n">
-        <v>131.94</v>
+        <v>130.14</v>
       </c>
       <c r="I53" t="n">
         <v>10.99</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.99</v>
+        <v>-1.13</v>
       </c>
       <c r="Q53" t="inlineStr"/>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3097,7 +3097,7 @@
         <v>20.6</v>
       </c>
       <c r="H54" t="n">
-        <v>17.58</v>
+        <v>16.72</v>
       </c>
       <c r="I54" t="n">
         <v>14.99</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.2</v>
+        <v>-2.82</v>
       </c>
       <c r="Q54" t="inlineStr"/>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3146,7 +3146,7 @@
         <v>166.03</v>
       </c>
       <c r="H55" t="n">
-        <v>131.94</v>
+        <v>130.14</v>
       </c>
       <c r="I55" t="n">
         <v>10</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.06</v>
+        <v>-2.17</v>
       </c>
       <c r="Q55" t="inlineStr"/>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3195,7 +3195,7 @@
         <v>159.74</v>
       </c>
       <c r="H56" t="n">
-        <v>131.94</v>
+        <v>130.14</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.74</v>
+        <v>-1.85</v>
       </c>
       <c r="Q56" t="inlineStr"/>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3244,7 +3244,7 @@
         <v>148.09</v>
       </c>
       <c r="H57" t="n">
-        <v>194.11</v>
+        <v>191.75</v>
       </c>
       <c r="I57" t="n">
         <v>40</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>12.43</v>
+        <v>11.79</v>
       </c>
       <c r="Q57" t="inlineStr"/>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3293,7 +3293,7 @@
         <v>44.1</v>
       </c>
       <c r="H58" t="n">
-        <v>44.07</v>
+        <v>44.18</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q58" t="inlineStr"/>
     </row>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3342,7 +3342,7 @@
         <v>40.33</v>
       </c>
       <c r="H59" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="I59" t="n">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.12</v>
+        <v>-1.09</v>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BBVA.ES</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3391,7 +3391,7 @@
         <v>12.75</v>
       </c>
       <c r="H60" t="n">
-        <v>13.385</v>
+        <v>13.715</v>
       </c>
       <c r="I60" t="n">
         <v>14.49</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0.36</v>
+        <v>0.97</v>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BCS.US</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3440,7 +3440,7 @@
         <v>15.57</v>
       </c>
       <c r="H61" t="n">
-        <v>17.43</v>
+        <v>17.59</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3489,7 +3489,7 @@
         <v>129.17</v>
       </c>
       <c r="H62" t="n">
-        <v>131.94</v>
+        <v>130.14</v>
       </c>
       <c r="I62" t="n">
         <v>20</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>YUM.US</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3538,7 +3538,7 @@
         <v>130.51</v>
       </c>
       <c r="H63" t="n">
-        <v>147.99</v>
+        <v>146.34</v>
       </c>
       <c r="I63" t="n">
         <v>0.04</v>
@@ -3565,11 +3565,11 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="n">
-        <v>1680991980</v>
+        <v>1830408508</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3578,19 +3578,19 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1958</v>
+        <v>0.5793</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45716.8556621875</v>
+        <v>45796.82346997685</v>
       </c>
       <c r="G64" t="n">
-        <v>178.67</v>
+        <v>17.26</v>
       </c>
       <c r="H64" t="n">
-        <v>194.11</v>
+        <v>16.72</v>
       </c>
       <c r="I64" t="n">
-        <v>34.98</v>
+        <v>10</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -3607,18 +3607,18 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>3.03</v>
+        <v>-0.31</v>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="n">
-        <v>1414752069</v>
+        <v>1680991980</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NEE.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3627,19 +3627,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.1933</v>
+        <v>0.1958</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45511.86049193287</v>
+        <v>45716.8556621875</v>
       </c>
       <c r="G65" t="n">
-        <v>77.53</v>
+        <v>178.67</v>
       </c>
       <c r="H65" t="n">
-        <v>74.97</v>
+        <v>191.75</v>
       </c>
       <c r="I65" t="n">
-        <v>14.99</v>
+        <v>34.98</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3656,18 +3656,18 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="n">
-        <v>1599449649</v>
+        <v>1414752069</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3676,19 +3676,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.4145</v>
+        <v>0.1933</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45663.73562525463</v>
+        <v>45511.86049193287</v>
       </c>
       <c r="G66" t="n">
-        <v>24.11</v>
+        <v>77.53</v>
       </c>
       <c r="H66" t="n">
-        <v>17.58</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3705,18 +3705,18 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>-2.7</v>
+        <v>-1.16</v>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="n">
-        <v>1559803221</v>
+        <v>1599449649</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3725,19 +3725,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.092</v>
+        <v>0.4145</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45628.85951927083</v>
+        <v>45663.73562525463</v>
       </c>
       <c r="G67" t="n">
-        <v>162.85</v>
+        <v>24.11</v>
       </c>
       <c r="H67" t="n">
-        <v>131.94</v>
+        <v>16.72</v>
       </c>
       <c r="I67" t="n">
-        <v>14.98</v>
+        <v>9.99</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3754,18 +3754,18 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>-2.84</v>
+        <v>-3.06</v>
       </c>
       <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
-        <v>1358151307</v>
+        <v>1559803221</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3774,19 +3774,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1081</v>
+        <v>0.092</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45460.88529052083</v>
+        <v>45628.85951927083</v>
       </c>
       <c r="G68" t="n">
-        <v>165.93</v>
+        <v>162.85</v>
       </c>
       <c r="H68" t="n">
-        <v>131.94</v>
+        <v>130.14</v>
       </c>
       <c r="I68" t="n">
-        <v>17.94</v>
+        <v>14.98</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3803,18 +3803,18 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>-3.67</v>
+        <v>-3.01</v>
       </c>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
-        <v>1754302454</v>
+        <v>1358151307</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>YPF.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3823,19 +3823,19 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.3673</v>
+        <v>0.1081</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45755.88025324074</v>
+        <v>45460.88529052083</v>
       </c>
       <c r="G69" t="n">
-        <v>27.17</v>
+        <v>165.93</v>
       </c>
       <c r="H69" t="n">
-        <v>35.82</v>
+        <v>130.14</v>
       </c>
       <c r="I69" t="n">
-        <v>9.98</v>
+        <v>17.94</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3852,18 +3852,18 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>3.18</v>
+        <v>-3.86</v>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
-        <v>1712850989</v>
+        <v>1754302454</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>YPF</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3872,19 +3872,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1244</v>
+        <v>0.3673</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45734.85576775463</v>
+        <v>45755.88025324074</v>
       </c>
       <c r="G70" t="n">
-        <v>160.64</v>
+        <v>27.17</v>
       </c>
       <c r="H70" t="n">
-        <v>166.19</v>
+        <v>35.95</v>
       </c>
       <c r="I70" t="n">
-        <v>19.98</v>
+        <v>9.98</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3901,18 +3901,18 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.22</v>
       </c>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="n">
-        <v>1744916497</v>
+        <v>1712850989</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3921,19 +3921,19 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.1244</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45751.74231563658</v>
+        <v>45734.85576775463</v>
       </c>
       <c r="G71" t="n">
-        <v>17.54</v>
+        <v>160.64</v>
       </c>
       <c r="H71" t="n">
-        <v>21.16</v>
+        <v>168.6</v>
       </c>
       <c r="I71" t="n">
-        <v>17.54</v>
+        <v>19.98</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3950,18 +3950,18 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>3.62</v>
+        <v>0.99</v>
       </c>
       <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
-        <v>1824475555</v>
+        <v>1744916497</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ACI.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3973,16 +3973,16 @@
         <v>1</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45792.64702015046</v>
+        <v>45751.74231563658</v>
       </c>
       <c r="G72" t="n">
-        <v>21.66</v>
+        <v>17.54</v>
       </c>
       <c r="H72" t="n">
-        <v>22.09</v>
+        <v>21.44</v>
       </c>
       <c r="I72" t="n">
-        <v>21.66</v>
+        <v>17.54</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3999,18 +3999,18 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.43</v>
+        <v>3.9</v>
       </c>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="n">
-        <v>1648733962</v>
+        <v>1830410729</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>DAR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4019,19 +4019,19 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.081</v>
+        <v>0.297</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45695.85463682871</v>
+        <v>45796.82476561343</v>
       </c>
       <c r="G73" t="n">
-        <v>129.56</v>
+        <v>33.66</v>
       </c>
       <c r="H73" t="n">
-        <v>139.03</v>
+        <v>31.48</v>
       </c>
       <c r="I73" t="n">
-        <v>10.49</v>
+        <v>10</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -4048,18 +4048,18 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.77</v>
+        <v>-0.65</v>
       </c>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="n">
-        <v>1806979127</v>
+        <v>1824475555</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4068,19 +4068,19 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.6361</v>
+        <v>1</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45783.83125244213</v>
+        <v>45792.64702015046</v>
       </c>
       <c r="G74" t="n">
-        <v>15.72</v>
+        <v>21.66</v>
       </c>
       <c r="H74" t="n">
-        <v>17.58</v>
+        <v>22.03</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>21.66</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -4097,18 +4097,18 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.18</v>
+        <v>0.37</v>
       </c>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
-        <v>1582723120</v>
+        <v>1648733962</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4117,19 +4117,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.3755</v>
+        <v>0.081</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45645.89511640046</v>
+        <v>45695.85463682871</v>
       </c>
       <c r="G75" t="n">
-        <v>53.26</v>
+        <v>129.56</v>
       </c>
       <c r="H75" t="n">
-        <v>58.87</v>
+        <v>140.99</v>
       </c>
       <c r="I75" t="n">
-        <v>20</v>
+        <v>10.49</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -4146,18 +4146,18 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.11</v>
+        <v>0.93</v>
       </c>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="n">
-        <v>1662995258</v>
+        <v>1806979127</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NEE.US</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4166,19 +4166,19 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.2943</v>
+        <v>0.6361</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45706.87121422453</v>
+        <v>45783.83125244213</v>
       </c>
       <c r="G76" t="n">
-        <v>67.97</v>
+        <v>15.72</v>
       </c>
       <c r="H76" t="n">
-        <v>74.97</v>
+        <v>16.72</v>
       </c>
       <c r="I76" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -4195,18 +4195,18 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>2.06</v>
+        <v>0.64</v>
       </c>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
-        <v>1559803984</v>
+        <v>1582723120</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4215,19 +4215,19 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1076</v>
+        <v>0.3755</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45628.86014383102</v>
+        <v>45645.89511640046</v>
       </c>
       <c r="G77" t="n">
-        <v>139.4</v>
+        <v>53.26</v>
       </c>
       <c r="H77" t="n">
-        <v>139.03</v>
+        <v>59.44</v>
       </c>
       <c r="I77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -4244,18 +4244,18 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.04</v>
+        <v>2.32</v>
       </c>
       <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
-        <v>1633116336</v>
+        <v>1662995258</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>VWO.US</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.2943</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45686.83272234954</v>
+        <v>45706.87121422453</v>
       </c>
       <c r="G78" t="n">
-        <v>44.24</v>
+        <v>67.97</v>
       </c>
       <c r="H78" t="n">
-        <v>47.72</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>44.24</v>
+        <v>20</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -4293,18 +4293,18 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>3.48</v>
+        <v>1.06</v>
       </c>
       <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
-        <v>1727564345</v>
+        <v>1559803984</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AGIO.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4313,19 +4313,19 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.3274</v>
+        <v>0.1076</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45743.76175270833</v>
+        <v>45628.86014383102</v>
       </c>
       <c r="G79" t="n">
-        <v>30.54</v>
+        <v>139.4</v>
       </c>
       <c r="H79" t="n">
-        <v>29</v>
+        <v>140.99</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -4342,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.51</v>
+        <v>0.17</v>
       </c>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
-        <v>1533882988</v>
+        <v>1633116336</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BOTZ.UK</t>
+          <t>VWO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4362,19 +4362,19 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45609.60769543982</v>
+        <v>45686.83272234954</v>
       </c>
       <c r="G80" t="n">
-        <v>21.905</v>
+        <v>44.24</v>
       </c>
       <c r="H80" t="n">
-        <v>20.345</v>
+        <v>47.7</v>
       </c>
       <c r="I80" t="n">
-        <v>10.95</v>
+        <v>44.24</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -4391,18 +4391,18 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>-0.78</v>
+        <v>3.46</v>
       </c>
       <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
-        <v>1599431096</v>
+        <v>1727564345</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>AGIO</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4411,19 +4411,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1013</v>
+        <v>0.3274</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45663.73014731482</v>
+        <v>45743.76175270833</v>
       </c>
       <c r="G81" t="n">
-        <v>148.02</v>
+        <v>30.54</v>
       </c>
       <c r="H81" t="n">
-        <v>131.94</v>
+        <v>30.11</v>
       </c>
       <c r="I81" t="n">
-        <v>14.99</v>
+        <v>10</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>-1.62</v>
+        <v>-0.14</v>
       </c>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="n">
-        <v>1381375440</v>
+        <v>1533882988</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4460,19 +4460,19 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1057</v>
+        <v>0.5</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45484.67118315972</v>
+        <v>45609.60769543982</v>
       </c>
       <c r="G82" t="n">
-        <v>189.11</v>
+        <v>21.905</v>
       </c>
       <c r="H82" t="n">
-        <v>194.11</v>
+        <v>20.42</v>
       </c>
       <c r="I82" t="n">
-        <v>19.99</v>
+        <v>10.95</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -4489,18 +4489,18 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>0.53</v>
+        <v>-0.74</v>
       </c>
       <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="n">
-        <v>1481609355</v>
+        <v>1599431096</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4509,19 +4509,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.107</v>
+        <v>0.1013</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45568.7734872338</v>
+        <v>45663.73014731482</v>
       </c>
       <c r="G83" t="n">
-        <v>140.18</v>
+        <v>148.02</v>
       </c>
       <c r="H83" t="n">
-        <v>139.03</v>
+        <v>130.14</v>
       </c>
       <c r="I83" t="n">
-        <v>15</v>
+        <v>14.99</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -4538,18 +4538,18 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.12</v>
+        <v>-1.81</v>
       </c>
       <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="n">
-        <v>1450043624</v>
+        <v>1381375440</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4558,19 +4558,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.0231</v>
+        <v>0.1057</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45544.65163525463</v>
+        <v>45484.67118315972</v>
       </c>
       <c r="G84" t="n">
-        <v>147.48</v>
+        <v>189.11</v>
       </c>
       <c r="H84" t="n">
-        <v>139.03</v>
+        <v>191.75</v>
       </c>
       <c r="I84" t="n">
-        <v>3.41</v>
+        <v>19.99</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -4587,18 +4587,18 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.2</v>
+        <v>0.28</v>
       </c>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
-        <v>1701100481</v>
+        <v>1481609355</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4607,19 +4607,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.0873</v>
+        <v>0.107</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45727.87214378472</v>
+        <v>45568.7734872338</v>
       </c>
       <c r="G85" t="n">
-        <v>171.67</v>
+        <v>140.18</v>
       </c>
       <c r="H85" t="n">
-        <v>194.11</v>
+        <v>140.99</v>
       </c>
       <c r="I85" t="n">
-        <v>14.99</v>
+        <v>15</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4636,18 +4636,18 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1.96</v>
+        <v>0.09</v>
       </c>
       <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
-        <v>1744929368</v>
+        <v>1450043624</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4656,19 +4656,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.0192</v>
+        <v>0.0231</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45751.74500871528</v>
+        <v>45544.65163525463</v>
       </c>
       <c r="G86" t="n">
-        <v>324.48</v>
+        <v>147.48</v>
       </c>
       <c r="H86" t="n">
-        <v>364.26</v>
+        <v>140.99</v>
       </c>
       <c r="I86" t="n">
-        <v>6.23</v>
+        <v>3.41</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -4685,18 +4685,18 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0.76</v>
+        <v>-0.15</v>
       </c>
       <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
-        <v>1825032378</v>
+        <v>1701100481</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DAR.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4705,19 +4705,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.2894</v>
+        <v>0.0873</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45792.76093177083</v>
+        <v>45727.87214378472</v>
       </c>
       <c r="G87" t="n">
-        <v>34.55</v>
+        <v>171.67</v>
       </c>
       <c r="H87" t="n">
-        <v>35.25</v>
+        <v>191.75</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>14.99</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4734,18 +4734,18 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
-        <v>1666457581</v>
+        <v>1744929368</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DAR.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4754,19 +4754,19 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5227000000000001</v>
+        <v>0.0192</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45708.68135159722</v>
+        <v>45751.74500871528</v>
       </c>
       <c r="G88" t="n">
-        <v>38.23</v>
+        <v>324.48</v>
       </c>
       <c r="H88" t="n">
-        <v>35.25</v>
+        <v>358.27</v>
       </c>
       <c r="I88" t="n">
-        <v>19.98</v>
+        <v>6.23</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4783,18 +4783,18 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>-1.55</v>
+        <v>0.65</v>
       </c>
       <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
-        <v>1648735305</v>
+        <v>1825032378</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>APA.US</t>
+          <t>DAR</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4803,16 +4803,16 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.4576</v>
+        <v>0.2894</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45695.85530675926</v>
+        <v>45792.76093177083</v>
       </c>
       <c r="G89" t="n">
-        <v>21.85</v>
+        <v>34.55</v>
       </c>
       <c r="H89" t="n">
-        <v>17.58</v>
+        <v>31.48</v>
       </c>
       <c r="I89" t="n">
         <v>10</v>
@@ -4832,18 +4832,18 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>-1.96</v>
+        <v>-0.89</v>
       </c>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
-        <v>1811432805</v>
+        <v>1666457581</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>DAR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.0856</v>
+        <v>0.5227000000000001</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45785.66143211805</v>
+        <v>45708.68135159722</v>
       </c>
       <c r="G90" t="n">
-        <v>128.46</v>
+        <v>38.23</v>
       </c>
       <c r="H90" t="n">
-        <v>177.64</v>
+        <v>31.48</v>
       </c>
       <c r="I90" t="n">
-        <v>11</v>
+        <v>19.98</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4881,18 +4881,18 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>4.21</v>
+        <v>-3.53</v>
       </c>
       <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
-        <v>1583696868</v>
+        <v>1648735305</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BOTZ.UK</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4901,19 +4901,19 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.5</v>
+        <v>0.4576</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45646.60053979167</v>
+        <v>45695.85530675926</v>
       </c>
       <c r="G91" t="n">
-        <v>20.645</v>
+        <v>21.85</v>
       </c>
       <c r="H91" t="n">
-        <v>20.345</v>
+        <v>16.72</v>
       </c>
       <c r="I91" t="n">
-        <v>10.32</v>
+        <v>10</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4930,18 +4930,18 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.15</v>
+        <v>-2.35</v>
       </c>
       <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
-        <v>1666459175</v>
+        <v>1811432805</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4950,19 +4950,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.1641</v>
+        <v>0.0856</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45708.68165298611</v>
+        <v>45785.66143211805</v>
       </c>
       <c r="G92" t="n">
-        <v>17.18</v>
+        <v>128.46</v>
       </c>
       <c r="H92" t="n">
-        <v>21.16</v>
+        <v>163.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2.82</v>
+        <v>11</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4979,18 +4979,18 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0.65</v>
+        <v>2.99</v>
       </c>
       <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
-        <v>1599448103</v>
+        <v>1583696868</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>BOTZ.L</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4999,19 +4999,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.2839</v>
+        <v>0.5</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45663.73506711805</v>
+        <v>45646.60053979167</v>
       </c>
       <c r="G93" t="n">
-        <v>52.83</v>
+        <v>20.645</v>
       </c>
       <c r="H93" t="n">
-        <v>58.87</v>
+        <v>20.42</v>
       </c>
       <c r="I93" t="n">
-        <v>15</v>
+        <v>10.32</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -5028,18 +5028,18 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.71</v>
+        <v>-0.11</v>
       </c>
       <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
-        <v>1635194724</v>
+        <v>1666459175</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AGIO.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5048,19 +5048,19 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.2875</v>
+        <v>0.1641</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45687.85271734954</v>
+        <v>45708.68165298611</v>
       </c>
       <c r="G94" t="n">
-        <v>34.78</v>
+        <v>17.18</v>
       </c>
       <c r="H94" t="n">
-        <v>29</v>
+        <v>21.44</v>
       </c>
       <c r="I94" t="n">
-        <v>10</v>
+        <v>2.82</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -5077,18 +5077,18 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>-1.66</v>
+        <v>0.7</v>
       </c>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
-        <v>1824477589</v>
+        <v>1599448103</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5097,19 +5097,19 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.2344</v>
+        <v>0.2839</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45792.64732982639</v>
+        <v>45663.73506711805</v>
       </c>
       <c r="G95" t="n">
-        <v>42.66</v>
+        <v>52.83</v>
       </c>
       <c r="H95" t="n">
-        <v>44.07</v>
+        <v>59.44</v>
       </c>
       <c r="I95" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -5126,18 +5126,18 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>0.33</v>
+        <v>1.88</v>
       </c>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="n">
-        <v>1727574394</v>
+        <v>1635194724</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ACI.US</t>
+          <t>AGIO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5146,19 +5146,19 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.2875</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45743.76658678241</v>
+        <v>45687.85271734954</v>
       </c>
       <c r="G96" t="n">
-        <v>21.13</v>
+        <v>34.78</v>
       </c>
       <c r="H96" t="n">
-        <v>22.09</v>
+        <v>30.11</v>
       </c>
       <c r="I96" t="n">
-        <v>21.13</v>
+        <v>10</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -5175,18 +5175,18 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>0.96</v>
+        <v>-1.34</v>
       </c>
       <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="n">
-        <v>1517514880</v>
+        <v>1824477589</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5195,19 +5195,19 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.0231</v>
+        <v>0.2344</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45597.61087239583</v>
+        <v>45792.64732982639</v>
       </c>
       <c r="G97" t="n">
-        <v>409.38</v>
+        <v>42.66</v>
       </c>
       <c r="H97" t="n">
-        <v>454.07</v>
+        <v>44.18</v>
       </c>
       <c r="I97" t="n">
-        <v>9.460000000000001</v>
+        <v>10</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -5224,18 +5224,18 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.03</v>
+        <v>0.36</v>
       </c>
       <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="n">
-        <v>1599435465</v>
+        <v>1727574394</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5244,19 +5244,19 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.0289</v>
+        <v>1</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45663.73115600694</v>
+        <v>45743.76658678241</v>
       </c>
       <c r="G98" t="n">
-        <v>517.7</v>
+        <v>21.13</v>
       </c>
       <c r="H98" t="n">
-        <v>583.11</v>
+        <v>22.03</v>
       </c>
       <c r="I98" t="n">
-        <v>14.96</v>
+        <v>21.13</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -5273,27 +5273,45 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.89</v>
+        <v>0.9</v>
       </c>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>1517514880</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45597.61087239583</v>
+      </c>
+      <c r="G99" t="n">
+        <v>409.38</v>
+      </c>
+      <c r="H99" t="n">
+        <v>452.61</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.460000000000001</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
@@ -5304,9 +5322,89 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>67.48</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>1599435465</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45663.73115600694</v>
+      </c>
+      <c r="G100" t="n">
+        <v>517.7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>569.47</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Stock Selection/OPEN POSITION.xlsx
+++ b/Stock Selection/OPEN POSITION.xlsx
@@ -549,7 +549,7 @@
         <v>17.54</v>
       </c>
       <c r="H2" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I2" t="n">
         <v>7.45</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" t="inlineStr"/>
     </row>
@@ -598,7 +598,7 @@
         <v>42.02</v>
       </c>
       <c r="H3" t="n">
-        <v>41.2</v>
+        <v>40.45</v>
       </c>
       <c r="I3" t="n">
         <v>19.99</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.39</v>
+        <v>-0.75</v>
       </c>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -647,7 +647,7 @@
         <v>21.31</v>
       </c>
       <c r="H4" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I4" t="n">
         <v>20</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.31</v>
+        <v>-4.29</v>
       </c>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -696,7 +696,7 @@
         <v>20.36</v>
       </c>
       <c r="H5" t="n">
-        <v>22.03</v>
+        <v>21.8</v>
       </c>
       <c r="I5" t="n">
         <v>20.36</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         <v>524.4299999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>569.47</v>
+        <v>569.85</v>
       </c>
       <c r="I6" t="n">
         <v>0.52</v>
@@ -794,7 +794,7 @@
         <v>51.24</v>
       </c>
       <c r="H7" t="n">
-        <v>59.44</v>
+        <v>59.27</v>
       </c>
       <c r="I7" t="n">
         <v>24.75</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.96</v>
+        <v>3.88</v>
       </c>
       <c r="Q7" t="inlineStr"/>
     </row>
@@ -843,7 +843,7 @@
         <v>46.11</v>
       </c>
       <c r="H8" t="n">
-        <v>47.7</v>
+        <v>47.59</v>
       </c>
       <c r="I8" t="n">
         <v>46.11</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="inlineStr"/>
     </row>
@@ -892,7 +892,7 @@
         <v>45.55</v>
       </c>
       <c r="H9" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.11</v>
+        <v>-2.08</v>
       </c>
       <c r="Q9" t="inlineStr"/>
     </row>
@@ -941,7 +941,7 @@
         <v>16.374</v>
       </c>
       <c r="H10" t="n">
-        <v>15.65</v>
+        <v>15.238</v>
       </c>
       <c r="I10" t="n">
         <v>17.9</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.26</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="Q10" t="inlineStr"/>
     </row>
@@ -990,7 +990,7 @@
         <v>129.08</v>
       </c>
       <c r="H11" t="n">
-        <v>140.99</v>
+        <v>139.68</v>
       </c>
       <c r="I11" t="n">
         <v>10.49</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="Q11" t="inlineStr"/>
     </row>
@@ -1039,7 +1039,7 @@
         <v>165.35</v>
       </c>
       <c r="H12" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I12" t="n">
         <v>15</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="Q12" t="inlineStr"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>15.3</v>
       </c>
       <c r="H13" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I13" t="n">
         <v>5.35</v>
@@ -1137,7 +1137,7 @@
         <v>43.27</v>
       </c>
       <c r="H14" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I14" t="n">
         <v>10.03</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.7</v>
+        <v>-1.67</v>
       </c>
       <c r="Q14" t="inlineStr"/>
     </row>
@@ -1186,7 +1186,7 @@
         <v>19.2</v>
       </c>
       <c r="H15" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I15" t="n">
         <v>15</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.94</v>
+        <v>-1.92</v>
       </c>
       <c r="Q15" t="inlineStr"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>15.55</v>
       </c>
       <c r="H16" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I16" t="n">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="Q16" t="inlineStr"/>
     </row>
@@ -1284,7 +1284,7 @@
         <v>36.1</v>
       </c>
       <c r="H17" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="Q17" t="inlineStr"/>
     </row>
@@ -1333,7 +1333,7 @@
         <v>126.78</v>
       </c>
       <c r="H18" t="n">
-        <v>163.4</v>
+        <v>156.44</v>
       </c>
       <c r="I18" t="n">
         <v>10.99</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.18</v>
+        <v>2.57</v>
       </c>
       <c r="Q18" t="inlineStr"/>
     </row>
@@ -1382,7 +1382,7 @@
         <v>195.11</v>
       </c>
       <c r="H19" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.25</v>
+        <v>0.08</v>
       </c>
       <c r="Q19" t="inlineStr"/>
     </row>
@@ -1431,7 +1431,7 @@
         <v>20.65</v>
       </c>
       <c r="H20" t="n">
-        <v>22.03</v>
+        <v>21.8</v>
       </c>
       <c r="I20" t="n">
         <v>20.65</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="Q20" t="inlineStr"/>
     </row>
@@ -1480,7 +1480,7 @@
         <v>56.78</v>
       </c>
       <c r="H21" t="n">
-        <v>59.44</v>
+        <v>59.27</v>
       </c>
       <c r="I21" t="n">
         <v>15</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="Q21" t="inlineStr"/>
     </row>
@@ -1529,7 +1529,7 @@
         <v>38.58</v>
       </c>
       <c r="H22" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.68</v>
+        <v>-0.65</v>
       </c>
       <c r="Q22" t="inlineStr"/>
     </row>
@@ -1578,7 +1578,7 @@
         <v>72.87</v>
       </c>
       <c r="H23" t="n">
-        <v>71.87</v>
+        <v>72.06</v>
       </c>
       <c r="I23" t="n">
         <v>72.87</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-1</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="Q23" t="inlineStr"/>
     </row>
@@ -1627,7 +1627,7 @@
         <v>15.3</v>
       </c>
       <c r="H24" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I24" t="n">
         <v>15.3</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="Q24" t="inlineStr"/>
     </row>
@@ -1676,7 +1676,7 @@
         <v>507.68</v>
       </c>
       <c r="H25" t="n">
-        <v>569.47</v>
+        <v>569.85</v>
       </c>
       <c r="I25" t="n">
         <v>14.98</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q25" t="inlineStr"/>
     </row>
@@ -1725,7 +1725,7 @@
         <v>196.9</v>
       </c>
       <c r="H26" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I26" t="n">
         <v>14.98</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.39</v>
+        <v>-0.05</v>
       </c>
       <c r="Q26" t="inlineStr"/>
     </row>
@@ -1774,7 +1774,7 @@
         <v>20.58</v>
       </c>
       <c r="H27" t="n">
-        <v>20.42</v>
+        <v>20.135</v>
       </c>
       <c r="I27" t="n">
         <v>20.58</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.16</v>
+        <v>-0.44</v>
       </c>
       <c r="Q27" t="inlineStr"/>
     </row>
@@ -1823,7 +1823,7 @@
         <v>135.82</v>
       </c>
       <c r="H28" t="n">
-        <v>138.01</v>
+        <v>136.57</v>
       </c>
       <c r="I28" t="n">
         <v>26</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="Q28" t="inlineStr"/>
     </row>
@@ -1872,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I29" t="n">
         <v>9.99</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="inlineStr"/>
     </row>
@@ -1921,7 +1921,7 @@
         <v>139.41</v>
       </c>
       <c r="H30" t="n">
-        <v>163.4</v>
+        <v>156.44</v>
       </c>
       <c r="I30" t="n">
         <v>5.34</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
       <c r="Q30" t="inlineStr"/>
     </row>
@@ -1970,7 +1970,7 @@
         <v>12.75</v>
       </c>
       <c r="H31" t="n">
-        <v>13.715</v>
+        <v>13.67</v>
       </c>
       <c r="I31" t="n">
         <v>10.51</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="Q31" t="inlineStr"/>
     </row>
@@ -2019,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="H32" t="n">
-        <v>44.18</v>
+        <v>43.41</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>408.33</v>
       </c>
       <c r="H33" t="n">
-        <v>452.61</v>
+        <v>454.92</v>
       </c>
       <c r="I33" t="n">
         <v>10.98</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="Q33" t="inlineStr"/>
     </row>
@@ -2117,7 +2117,7 @@
         <v>16.12</v>
       </c>
       <c r="H34" t="n">
-        <v>17.59</v>
+        <v>17.62</v>
       </c>
       <c r="I34" t="n">
         <v>16.12</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="inlineStr"/>
     </row>
@@ -2166,7 +2166,7 @@
         <v>20.62</v>
       </c>
       <c r="H35" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I35" t="n">
         <v>9.99</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.89</v>
+        <v>-1.88</v>
       </c>
       <c r="Q35" t="inlineStr"/>
     </row>
@@ -2215,7 +2215,7 @@
         <v>232.2</v>
       </c>
       <c r="H36" t="n">
-        <v>202.22</v>
+        <v>201.23</v>
       </c>
       <c r="I36" t="n">
         <v>0.02</v>
@@ -2264,7 +2264,7 @@
         <v>28.09</v>
       </c>
       <c r="H37" t="n">
-        <v>30.11</v>
+        <v>29.51</v>
       </c>
       <c r="I37" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="Q37" t="inlineStr"/>
     </row>
@@ -2313,7 +2313,7 @@
         <v>178.48</v>
       </c>
       <c r="H38" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I38" t="n">
         <v>14.99</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.12</v>
+        <v>1.49</v>
       </c>
       <c r="Q38" t="inlineStr"/>
     </row>
@@ -2362,7 +2362,7 @@
         <v>127.16</v>
       </c>
       <c r="H39" t="n">
-        <v>138.01</v>
+        <v>136.57</v>
       </c>
       <c r="I39" t="n">
         <v>19.99</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="Q39" t="inlineStr"/>
     </row>
@@ -2411,7 +2411,7 @@
         <v>44.49</v>
       </c>
       <c r="H40" t="n">
-        <v>47.7</v>
+        <v>47.59</v>
       </c>
       <c r="I40" t="n">
         <v>44.49</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="Q40" t="inlineStr"/>
     </row>
@@ -2460,7 +2460,7 @@
         <v>190.67</v>
       </c>
       <c r="H41" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I41" t="n">
         <v>12.98</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="Q41" t="inlineStr"/>
     </row>
@@ -2509,7 +2509,7 @@
         <v>74.13</v>
       </c>
       <c r="H42" t="n">
-        <v>71.87</v>
+        <v>72.06</v>
       </c>
       <c r="I42" t="n">
         <v>74.13</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-2.26</v>
+        <v>-2.07</v>
       </c>
       <c r="Q42" t="inlineStr"/>
     </row>
@@ -2558,7 +2558,7 @@
         <v>14.87</v>
       </c>
       <c r="H43" t="n">
-        <v>17.59</v>
+        <v>17.62</v>
       </c>
       <c r="I43" t="n">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
@@ -2607,7 +2607,7 @@
         <v>50.99</v>
       </c>
       <c r="H44" t="n">
-        <v>59.44</v>
+        <v>59.27</v>
       </c>
       <c r="I44" t="n">
         <v>20</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="inlineStr"/>
     </row>
@@ -2656,7 +2656,7 @@
         <v>127.72</v>
       </c>
       <c r="H45" t="n">
-        <v>163.4</v>
+        <v>156.44</v>
       </c>
       <c r="I45" t="n">
         <v>11</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.07</v>
+        <v>2.47</v>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
@@ -2705,7 +2705,7 @@
         <v>29.7</v>
       </c>
       <c r="H46" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I46" t="n">
         <v>10</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
@@ -2754,7 +2754,7 @@
         <v>37.7</v>
       </c>
       <c r="H47" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I47" t="n">
         <v>9.99</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
@@ -2803,7 +2803,7 @@
         <v>185.82</v>
       </c>
       <c r="H48" t="n">
-        <v>168.6</v>
+        <v>170.83</v>
       </c>
       <c r="I48" t="n">
         <v>10</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.93</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
@@ -2852,7 +2852,7 @@
         <v>16.12</v>
       </c>
       <c r="H49" t="n">
-        <v>17.59</v>
+        <v>17.62</v>
       </c>
       <c r="I49" t="n">
         <v>3.88</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="Q49" t="inlineStr"/>
     </row>
@@ -2901,7 +2901,7 @@
         <v>16.425</v>
       </c>
       <c r="H50" t="n">
-        <v>15.65</v>
+        <v>15.238</v>
       </c>
       <c r="I50" t="n">
         <v>17.11</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.53</v>
+        <v>-0.02</v>
       </c>
       <c r="Q50" t="inlineStr"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>17.18</v>
       </c>
       <c r="H51" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I51" t="n">
         <v>17.18</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="Q51" t="inlineStr"/>
     </row>
@@ -2999,7 +2999,7 @@
         <v>77.34999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>71.56999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="I52" t="n">
         <v>19.99</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-1.49</v>
+        <v>-2.69</v>
       </c>
       <c r="Q52" t="inlineStr"/>
     </row>
@@ -3048,7 +3048,7 @@
         <v>144.94</v>
       </c>
       <c r="H53" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I53" t="n">
         <v>10.99</v>
@@ -3097,7 +3097,7 @@
         <v>20.6</v>
       </c>
       <c r="H54" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I54" t="n">
         <v>14.99</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.82</v>
+        <v>-2.81</v>
       </c>
       <c r="Q54" t="inlineStr"/>
     </row>
@@ -3146,7 +3146,7 @@
         <v>166.03</v>
       </c>
       <c r="H55" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I55" t="n">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>159.74</v>
       </c>
       <c r="H56" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.85</v>
+        <v>-1.86</v>
       </c>
       <c r="Q56" t="inlineStr"/>
     </row>
@@ -3244,7 +3244,7 @@
         <v>148.09</v>
       </c>
       <c r="H57" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I57" t="n">
         <v>40</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>11.79</v>
+        <v>12.98</v>
       </c>
       <c r="Q57" t="inlineStr"/>
     </row>
@@ -3293,7 +3293,7 @@
         <v>44.1</v>
       </c>
       <c r="H58" t="n">
-        <v>44.18</v>
+        <v>43.41</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0.02</v>
+        <v>-0.16</v>
       </c>
       <c r="Q58" t="inlineStr"/>
     </row>
@@ -3342,7 +3342,7 @@
         <v>40.33</v>
       </c>
       <c r="H59" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I59" t="n">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.09</v>
+        <v>-1.06</v>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
@@ -3391,7 +3391,7 @@
         <v>12.75</v>
       </c>
       <c r="H60" t="n">
-        <v>13.715</v>
+        <v>13.67</v>
       </c>
       <c r="I60" t="n">
         <v>14.49</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
@@ -3440,7 +3440,7 @@
         <v>15.57</v>
       </c>
       <c r="H61" t="n">
-        <v>17.59</v>
+        <v>17.62</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
@@ -3489,7 +3489,7 @@
         <v>129.17</v>
       </c>
       <c r="H62" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I62" t="n">
         <v>20</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
@@ -3538,7 +3538,7 @@
         <v>130.51</v>
       </c>
       <c r="H63" t="n">
-        <v>146.34</v>
+        <v>145.39</v>
       </c>
       <c r="I63" t="n">
         <v>0.04</v>
@@ -3587,7 +3587,7 @@
         <v>17.26</v>
       </c>
       <c r="H64" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I64" t="n">
         <v>10</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
@@ -3636,7 +3636,7 @@
         <v>178.67</v>
       </c>
       <c r="H65" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I65" t="n">
         <v>34.98</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>2.56</v>
+        <v>3.43</v>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
@@ -3685,7 +3685,7 @@
         <v>77.53</v>
       </c>
       <c r="H66" t="n">
-        <v>71.56999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="I66" t="n">
         <v>14.99</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>-1.16</v>
+        <v>-2.06</v>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
@@ -3734,7 +3734,7 @@
         <v>24.11</v>
       </c>
       <c r="H67" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I67" t="n">
         <v>9.99</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>-3.06</v>
+        <v>-3.05</v>
       </c>
       <c r="Q67" t="inlineStr"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>162.85</v>
       </c>
       <c r="H68" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I68" t="n">
         <v>14.98</v>
@@ -3832,7 +3832,7 @@
         <v>165.93</v>
       </c>
       <c r="H69" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I69" t="n">
         <v>17.94</v>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>-3.86</v>
+        <v>-3.87</v>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
@@ -3881,7 +3881,7 @@
         <v>27.17</v>
       </c>
       <c r="H70" t="n">
-        <v>35.95</v>
+        <v>36.07</v>
       </c>
       <c r="I70" t="n">
         <v>9.98</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="Q70" t="inlineStr"/>
     </row>
@@ -3930,7 +3930,7 @@
         <v>160.64</v>
       </c>
       <c r="H71" t="n">
-        <v>168.6</v>
+        <v>170.83</v>
       </c>
       <c r="I71" t="n">
         <v>19.98</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.99</v>
+        <v>1.27</v>
       </c>
       <c r="Q71" t="inlineStr"/>
     </row>
@@ -3979,7 +3979,7 @@
         <v>17.54</v>
       </c>
       <c r="H72" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I72" t="n">
         <v>17.54</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="Q72" t="inlineStr"/>
     </row>
@@ -4028,7 +4028,7 @@
         <v>33.66</v>
       </c>
       <c r="H73" t="n">
-        <v>31.48</v>
+        <v>31.67</v>
       </c>
       <c r="I73" t="n">
         <v>10</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.65</v>
+        <v>-0.59</v>
       </c>
       <c r="Q73" t="inlineStr"/>
     </row>
@@ -4077,7 +4077,7 @@
         <v>21.66</v>
       </c>
       <c r="H74" t="n">
-        <v>22.03</v>
+        <v>21.8</v>
       </c>
       <c r="I74" t="n">
         <v>21.66</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
       <c r="Q74" t="inlineStr"/>
     </row>
@@ -4126,7 +4126,7 @@
         <v>129.56</v>
       </c>
       <c r="H75" t="n">
-        <v>140.99</v>
+        <v>139.68</v>
       </c>
       <c r="I75" t="n">
         <v>10.49</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="Q75" t="inlineStr"/>
     </row>
@@ -4175,7 +4175,7 @@
         <v>15.72</v>
       </c>
       <c r="H76" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I76" t="n">
         <v>10</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="Q76" t="inlineStr"/>
     </row>
@@ -4224,7 +4224,7 @@
         <v>53.26</v>
       </c>
       <c r="H77" t="n">
-        <v>59.44</v>
+        <v>59.27</v>
       </c>
       <c r="I77" t="n">
         <v>20</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q77" t="inlineStr"/>
     </row>
@@ -4273,7 +4273,7 @@
         <v>67.97</v>
       </c>
       <c r="H78" t="n">
-        <v>71.56999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="I78" t="n">
         <v>20</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.06</v>
+        <v>-0.31</v>
       </c>
       <c r="Q78" t="inlineStr"/>
     </row>
@@ -4322,7 +4322,7 @@
         <v>139.4</v>
       </c>
       <c r="H79" t="n">
-        <v>140.99</v>
+        <v>139.68</v>
       </c>
       <c r="I79" t="n">
         <v>15</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="Q79" t="inlineStr"/>
     </row>
@@ -4371,7 +4371,7 @@
         <v>44.24</v>
       </c>
       <c r="H80" t="n">
-        <v>47.7</v>
+        <v>47.59</v>
       </c>
       <c r="I80" t="n">
         <v>44.24</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="Q80" t="inlineStr"/>
     </row>
@@ -4420,7 +4420,7 @@
         <v>30.54</v>
       </c>
       <c r="H81" t="n">
-        <v>30.11</v>
+        <v>29.51</v>
       </c>
       <c r="I81" t="n">
         <v>10</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.14</v>
+        <v>-0.34</v>
       </c>
       <c r="Q81" t="inlineStr"/>
     </row>
@@ -4469,7 +4469,7 @@
         <v>21.905</v>
       </c>
       <c r="H82" t="n">
-        <v>20.42</v>
+        <v>20.135</v>
       </c>
       <c r="I82" t="n">
         <v>10.95</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.74</v>
+        <v>-0.88</v>
       </c>
       <c r="Q82" t="inlineStr"/>
     </row>
@@ -4518,7 +4518,7 @@
         <v>148.02</v>
       </c>
       <c r="H83" t="n">
-        <v>130.14</v>
+        <v>130.1</v>
       </c>
       <c r="I83" t="n">
         <v>14.99</v>
@@ -4567,7 +4567,7 @@
         <v>189.11</v>
       </c>
       <c r="H84" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I84" t="n">
         <v>19.99</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0.28</v>
+        <v>0.74</v>
       </c>
       <c r="Q84" t="inlineStr"/>
     </row>
@@ -4616,7 +4616,7 @@
         <v>140.18</v>
       </c>
       <c r="H85" t="n">
-        <v>140.99</v>
+        <v>139.68</v>
       </c>
       <c r="I85" t="n">
         <v>15</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="Q85" t="inlineStr"/>
     </row>
@@ -4665,7 +4665,7 @@
         <v>147.48</v>
       </c>
       <c r="H86" t="n">
-        <v>140.99</v>
+        <v>139.68</v>
       </c>
       <c r="I86" t="n">
         <v>3.41</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="Q86" t="inlineStr"/>
     </row>
@@ -4714,7 +4714,7 @@
         <v>171.67</v>
       </c>
       <c r="H87" t="n">
-        <v>191.75</v>
+        <v>196.16</v>
       </c>
       <c r="I87" t="n">
         <v>14.99</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="Q87" t="inlineStr"/>
     </row>
@@ -4763,7 +4763,7 @@
         <v>324.48</v>
       </c>
       <c r="H88" t="n">
-        <v>358.27</v>
+        <v>357</v>
       </c>
       <c r="I88" t="n">
         <v>6.23</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="Q88" t="inlineStr"/>
     </row>
@@ -4812,7 +4812,7 @@
         <v>34.55</v>
       </c>
       <c r="H89" t="n">
-        <v>31.48</v>
+        <v>31.67</v>
       </c>
       <c r="I89" t="n">
         <v>10</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.89</v>
+        <v>-0.83</v>
       </c>
       <c r="Q89" t="inlineStr"/>
     </row>
@@ -4861,7 +4861,7 @@
         <v>38.23</v>
       </c>
       <c r="H90" t="n">
-        <v>31.48</v>
+        <v>31.67</v>
       </c>
       <c r="I90" t="n">
         <v>19.98</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>-3.53</v>
+        <v>-3.43</v>
       </c>
       <c r="Q90" t="inlineStr"/>
     </row>
@@ -4910,7 +4910,7 @@
         <v>21.85</v>
       </c>
       <c r="H91" t="n">
-        <v>16.72</v>
+        <v>16.74</v>
       </c>
       <c r="I91" t="n">
         <v>10</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>-2.35</v>
+        <v>-2.34</v>
       </c>
       <c r="Q91" t="inlineStr"/>
     </row>
@@ -4959,7 +4959,7 @@
         <v>128.46</v>
       </c>
       <c r="H92" t="n">
-        <v>163.4</v>
+        <v>156.44</v>
       </c>
       <c r="I92" t="n">
         <v>11</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.99</v>
+        <v>2.39</v>
       </c>
       <c r="Q92" t="inlineStr"/>
     </row>
@@ -5008,7 +5008,7 @@
         <v>20.645</v>
       </c>
       <c r="H93" t="n">
-        <v>20.42</v>
+        <v>20.135</v>
       </c>
       <c r="I93" t="n">
         <v>10.32</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.11</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93" t="inlineStr"/>
     </row>
@@ -5057,7 +5057,7 @@
         <v>17.18</v>
       </c>
       <c r="H94" t="n">
-        <v>21.44</v>
+        <v>21.42</v>
       </c>
       <c r="I94" t="n">
         <v>2.82</v>
@@ -5106,7 +5106,7 @@
         <v>52.83</v>
       </c>
       <c r="H95" t="n">
-        <v>59.44</v>
+        <v>59.27</v>
       </c>
       <c r="I95" t="n">
         <v>15</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q95" t="inlineStr"/>
     </row>
@@ -5155,7 +5155,7 @@
         <v>34.78</v>
       </c>
       <c r="H96" t="n">
-        <v>30.11</v>
+        <v>29.51</v>
       </c>
       <c r="I96" t="n">
         <v>10</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>-1.34</v>
+        <v>-1.52</v>
       </c>
       <c r="Q96" t="inlineStr"/>
     </row>
@@ -5204,7 +5204,7 @@
         <v>42.66</v>
       </c>
       <c r="H97" t="n">
-        <v>44.18</v>
+        <v>43.41</v>
       </c>
       <c r="I97" t="n">
         <v>10</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="Q97" t="inlineStr"/>
     </row>
@@ -5253,7 +5253,7 @@
         <v>21.13</v>
       </c>
       <c r="H98" t="n">
-        <v>22.03</v>
+        <v>21.8</v>
       </c>
       <c r="I98" t="n">
         <v>21.13</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="Q98" t="inlineStr"/>
     </row>
@@ -5302,7 +5302,7 @@
         <v>409.38</v>
       </c>
       <c r="H99" t="n">
-        <v>452.61</v>
+        <v>454.92</v>
       </c>
       <c r="I99" t="n">
         <v>9.460000000000001</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Q99" t="inlineStr"/>
     </row>
@@ -5351,7 +5351,7 @@
         <v>517.7</v>
       </c>
       <c r="H100" t="n">
-        <v>569.47</v>
+        <v>569.85</v>
       </c>
       <c r="I100" t="n">
         <v>14.96</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q100" t="inlineStr"/>
     </row>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>50.85</v>
+        <v>45.65</v>
       </c>
       <c r="Q101" t="inlineStr"/>
     </row>

--- a/Stock Selection/OPEN POSITION.xlsx
+++ b/Stock Selection/OPEN POSITION.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,26 +526,4885 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1744916452</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45751.74230173611</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.45</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.64</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1817264187</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4757</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45789.64859377315</v>
+      </c>
+      <c r="G3" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40.45</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1566610015</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9385</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45632.87667083334</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1644796307</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45693.85501710648</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1582737192</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45645.90143930555</v>
+      </c>
+      <c r="G6" t="n">
+        <v>524.4299999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>569.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1422773288</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45518.84428523148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1727563010</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VWO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45743.76106726852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="I8" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1599455288</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2195</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45663.73750263889</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1381417257</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BATT.AS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45484.67877329861</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.374</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.238</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1644789287</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0813</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45693.85123056713</v>
+      </c>
+      <c r="G11" t="n">
+        <v>129.08</v>
+      </c>
+      <c r="H11" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1729617775</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0907</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45744.71339734954</v>
+      </c>
+      <c r="G12" t="n">
+        <v>165.35</v>
+      </c>
+      <c r="H12" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1554741910</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45623.74951116898</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1621495187</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2318</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45678.83178196759</v>
+      </c>
+      <c r="G14" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1701100027</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45727.87202070602</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1744767540</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45751.72316712963</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1653137218</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45699.85152199074</v>
+      </c>
+      <c r="G17" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1806978791</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0867</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45783.83109655092</v>
+      </c>
+      <c r="G18" t="n">
+        <v>126.78</v>
+      </c>
+      <c r="H18" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1582708979</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45645.88746980324</v>
+      </c>
+      <c r="G19" t="n">
+        <v>195.11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1662993636</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45706.87026833333</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1824482557</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2641</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45792.64805195602</v>
+      </c>
+      <c r="G21" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1631475148</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2592</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45685.83625201389</v>
+      </c>
+      <c r="G22" t="n">
+        <v>38.58</v>
+      </c>
+      <c r="H22" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1727591551</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BND</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45743.77389555555</v>
+      </c>
+      <c r="G23" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="H23" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1554741956</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45623.74952237269</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1606697510</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45667.68664726852</v>
+      </c>
+      <c r="G25" t="n">
+        <v>507.68</v>
+      </c>
+      <c r="H25" t="n">
+        <v>569.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1511085920</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0761</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45593.7262774074</v>
+      </c>
+      <c r="G26" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1378901781</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BOTZ.L</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45482.71294556713</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="H27" t="n">
+        <v>20.135</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>1495551484</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>INGR</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1914</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45580.70648087963</v>
+      </c>
+      <c r="G28" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="H28" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>1754304266</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7137</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45755.88055112268</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1701098878</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45727.87167594907</v>
+      </c>
+      <c r="G30" t="n">
+        <v>139.41</v>
+      </c>
+      <c r="H30" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1811475599</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BBVA.MC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7256</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45785.66972070602</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1666451221</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45708.68022634259</v>
+      </c>
+      <c r="G32" t="n">
+        <v>43</v>
+      </c>
+      <c r="H32" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1648737122</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45695.85619950231</v>
+      </c>
+      <c r="G33" t="n">
+        <v>408.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>454.92</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1806980496</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45783.83190503472</v>
+      </c>
+      <c r="G34" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="H34" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="I34" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>1582714896</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4847</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45645.89066263889</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H35" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1499061783</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45582.73996892361</v>
+      </c>
+      <c r="G36" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>201.23</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1825032062</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AGIO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3559</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45792.76080334491</v>
+      </c>
+      <c r="G37" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="H37" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1554742887</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45623.74993112269</v>
+      </c>
+      <c r="G38" t="n">
+        <v>178.48</v>
+      </c>
+      <c r="H38" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>1642762235</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>INGR</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1572</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45692.86612574074</v>
+      </c>
+      <c r="G39" t="n">
+        <v>127.16</v>
+      </c>
+      <c r="H39" t="n">
+        <v>136.57</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1680993370</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>VWO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45716.85638861111</v>
+      </c>
+      <c r="G40" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="H40" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="I40" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>1532661507</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.06809999999999999</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45608.74251107639</v>
+      </c>
+      <c r="G41" t="n">
+        <v>190.67</v>
+      </c>
+      <c r="H41" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>1744930699</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BND</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45751.74534789352</v>
+      </c>
+      <c r="G42" t="n">
+        <v>74.13</v>
+      </c>
+      <c r="H42" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="I42" t="n">
+        <v>74.13</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>1776193271</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6724</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45764.85451520833</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="H43" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1461331124</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3922</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45553.65374138889</v>
+      </c>
+      <c r="G44" t="n">
+        <v>50.99</v>
+      </c>
+      <c r="H44" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I44" t="n">
+        <v>20</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1712849726</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0861</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45734.85489405093</v>
+      </c>
+      <c r="G45" t="n">
+        <v>127.72</v>
+      </c>
+      <c r="H45" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1806977521</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3367</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45783.8305750463</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1666461140</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2651</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45708.68207092593</v>
+      </c>
+      <c r="G47" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1648740228</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45695.85792408565</v>
+      </c>
+      <c r="G48" t="n">
+        <v>185.82</v>
+      </c>
+      <c r="H48" t="n">
+        <v>170.83</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1806980482</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2406</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45783.83189613426</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>1594315903</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BATT.AS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45659.42644752315</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16.425</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15.238</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>1666459270</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45708.68166530092</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H51" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I51" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>1559802942</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45628.85929152778</v>
+      </c>
+      <c r="G52" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>1644788775</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45693.85093391204</v>
+      </c>
+      <c r="G53" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="H53" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>1680994777</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.7278</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45716.85705375</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>1517510856</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0602</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45597.61014849537</v>
+      </c>
+      <c r="G55" t="n">
+        <v>166.03</v>
+      </c>
+      <c r="H55" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>1563288050</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45630.85583428241</v>
+      </c>
+      <c r="G56" t="n">
+        <v>159.74</v>
+      </c>
+      <c r="H56" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>1744879358</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2701</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45751.73925940973</v>
+      </c>
+      <c r="G57" t="n">
+        <v>148.09</v>
+      </c>
+      <c r="H57" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>1817256440</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45789.64787115741</v>
+      </c>
+      <c r="G58" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>1635194117</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2479</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45687.85228493056</v>
+      </c>
+      <c r="G59" t="n">
+        <v>40.33</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>1811475646</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BBVA.MC</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45785.66973634259</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>1796453499</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6422</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45777.64668229167</v>
+      </c>
+      <c r="G61" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>1824476420</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1548</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45792.64714148148</v>
+      </c>
+      <c r="G62" t="n">
+        <v>129.17</v>
+      </c>
+      <c r="H62" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>20</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>1582735114</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45645.90076803241</v>
+      </c>
+      <c r="G63" t="n">
+        <v>130.51</v>
+      </c>
+      <c r="H63" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>1830408508</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5793</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45796.82346997685</v>
+      </c>
+      <c r="G64" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="H64" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>1680991980</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1958</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45716.8556621875</v>
+      </c>
+      <c r="G65" t="n">
+        <v>178.67</v>
+      </c>
+      <c r="H65" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34.98</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>1414752069</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1933</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45511.86049193287</v>
+      </c>
+      <c r="G66" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="H66" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>1599449649</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45663.73562525463</v>
+      </c>
+      <c r="G67" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>1559803221</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45628.85951927083</v>
+      </c>
+      <c r="G68" t="n">
+        <v>162.85</v>
+      </c>
+      <c r="H68" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>1358151307</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1081</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45460.88529052083</v>
+      </c>
+      <c r="G69" t="n">
+        <v>165.93</v>
+      </c>
+      <c r="H69" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>1754302454</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>YPF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.3673</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45755.88025324074</v>
+      </c>
+      <c r="G70" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="H70" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>1712850989</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1244</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45734.85576775463</v>
+      </c>
+      <c r="G71" t="n">
+        <v>160.64</v>
+      </c>
+      <c r="H71" t="n">
+        <v>170.83</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>1744916497</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45751.74231563658</v>
+      </c>
+      <c r="G72" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I72" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>1830410729</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DAR</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45796.82476561343</v>
+      </c>
+      <c r="G73" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="H73" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>1824475555</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45792.64702015046</v>
+      </c>
+      <c r="G74" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="H74" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>1648733962</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45695.85463682871</v>
+      </c>
+      <c r="G75" t="n">
+        <v>129.56</v>
+      </c>
+      <c r="H75" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>1806979127</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6361</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45783.83125244213</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="H76" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>1582723120</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3755</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45645.89511640046</v>
+      </c>
+      <c r="G77" t="n">
+        <v>53.26</v>
+      </c>
+      <c r="H77" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I77" t="n">
+        <v>20</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>1662995258</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45706.87121422453</v>
+      </c>
+      <c r="G78" t="n">
+        <v>67.97</v>
+      </c>
+      <c r="H78" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>1559803984</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45628.86014383102</v>
+      </c>
+      <c r="G79" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>1633116336</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>VWO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45686.83272234954</v>
+      </c>
+      <c r="G80" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="H80" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="I80" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>1727564345</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AGIO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45743.76175270833</v>
+      </c>
+      <c r="G81" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="H81" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>1533882988</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BOTZ.L</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45609.60769543982</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21.905</v>
+      </c>
+      <c r="H82" t="n">
+        <v>20.135</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>1599431096</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45663.73014731482</v>
+      </c>
+      <c r="G83" t="n">
+        <v>148.02</v>
+      </c>
+      <c r="H83" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>1381375440</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1057</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45484.67118315972</v>
+      </c>
+      <c r="G84" t="n">
+        <v>189.11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I84" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>1481609355</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45568.7734872338</v>
+      </c>
+      <c r="G85" t="n">
+        <v>140.18</v>
+      </c>
+      <c r="H85" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>1450043624</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45544.65163525463</v>
+      </c>
+      <c r="G86" t="n">
+        <v>147.48</v>
+      </c>
+      <c r="H86" t="n">
+        <v>139.68</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>1701100481</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0873</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45727.87214378472</v>
+      </c>
+      <c r="G87" t="n">
+        <v>171.67</v>
+      </c>
+      <c r="H87" t="n">
+        <v>196.16</v>
+      </c>
+      <c r="I87" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>1744929368</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45751.74500871528</v>
+      </c>
+      <c r="G88" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="H88" t="n">
+        <v>357</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>1825032378</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DAR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2894</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45792.76093177083</v>
+      </c>
+      <c r="G89" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="H89" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>1666457581</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DAR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5227000000000001</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>45708.68135159722</v>
+      </c>
+      <c r="G90" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="I90" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>1648735305</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4576</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45695.85530675926</v>
+      </c>
+      <c r="G91" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="H91" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>1811432805</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>45785.66143211805</v>
+      </c>
+      <c r="G92" t="n">
+        <v>128.46</v>
+      </c>
+      <c r="H92" t="n">
+        <v>156.44</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>1583696868</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BOTZ.L</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>45646.60053979167</v>
+      </c>
+      <c r="G93" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="H93" t="n">
+        <v>20.135</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>1666459175</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ING</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1641</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45708.68165298611</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H94" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>1599448103</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.2839</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>45663.73506711805</v>
+      </c>
+      <c r="G95" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="H95" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I95" t="n">
+        <v>15</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>1635194724</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>AGIO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>45687.85271734954</v>
+      </c>
+      <c r="G96" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="H96" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>1824477589</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2344</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>45792.64732982639</v>
+      </c>
+      <c r="G97" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="H97" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>1727574394</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ACI</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>45743.76658678241</v>
+      </c>
+      <c r="G98" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="H98" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>1517514880</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45597.61087239583</v>
+      </c>
+      <c r="G99" t="n">
+        <v>409.38</v>
+      </c>
+      <c r="H99" t="n">
+        <v>454.92</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>1599435465</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45663.73115600694</v>
+      </c>
+      <c r="G100" t="n">
+        <v>517.7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>569.85</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
